--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.7304773333333333</v>
+      </c>
+      <c r="H2">
+        <v>2.191432</v>
+      </c>
+      <c r="I2">
+        <v>0.03163269997405359</v>
+      </c>
+      <c r="J2">
+        <v>0.03163269997405359</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>2.004760666666666</v>
-      </c>
-      <c r="H2">
-        <v>6.014282</v>
-      </c>
-      <c r="I2">
-        <v>0.1200698528618338</v>
-      </c>
-      <c r="J2">
-        <v>0.1200698528618338</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.5555316666666666</v>
+        <v>0.1817723333333333</v>
       </c>
       <c r="N2">
-        <v>1.666595</v>
+        <v>0.5453170000000001</v>
       </c>
       <c r="O2">
-        <v>0.01938483203642842</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="P2">
-        <v>0.01938483203642843</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="Q2">
-        <v>1.113708034421111</v>
+        <v>0.1327805693271111</v>
       </c>
       <c r="R2">
-        <v>10.02337230979</v>
+        <v>1.195025123944</v>
       </c>
       <c r="S2">
-        <v>0.002327533930365323</v>
+        <v>0.0002836270760265657</v>
       </c>
       <c r="T2">
-        <v>0.002327533930365323</v>
+        <v>0.0002836270760265657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.004760666666666</v>
+        <v>0.7304773333333333</v>
       </c>
       <c r="H3">
-        <v>6.014282</v>
+        <v>2.191432</v>
       </c>
       <c r="I3">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="J3">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1817723333333333</v>
+        <v>20.09115</v>
       </c>
       <c r="N3">
-        <v>0.5453170000000001</v>
+        <v>60.27345</v>
       </c>
       <c r="O3">
-        <v>0.006342799811357313</v>
+        <v>0.9910337379907751</v>
       </c>
       <c r="P3">
-        <v>0.006342799811357313</v>
+        <v>0.9910337379907752</v>
       </c>
       <c r="Q3">
-        <v>0.3644100241548889</v>
+        <v>14.6761296756</v>
       </c>
       <c r="R3">
-        <v>3.279690217394</v>
+        <v>132.0851670804</v>
       </c>
       <c r="S3">
-        <v>0.0007615790400817395</v>
+        <v>0.03134907289802703</v>
       </c>
       <c r="T3">
-        <v>0.0007615790400817397</v>
+        <v>0.03134907289802703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>9.409654999999999</v>
+      </c>
+      <c r="H4">
+        <v>28.228965</v>
+      </c>
+      <c r="I4">
+        <v>0.4074771110502447</v>
+      </c>
+      <c r="J4">
+        <v>0.4074771110502448</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>2.004760666666666</v>
-      </c>
-      <c r="H4">
-        <v>6.014282</v>
-      </c>
-      <c r="I4">
-        <v>0.1200698528618338</v>
-      </c>
-      <c r="J4">
-        <v>0.1200698528618338</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>27.92075533333333</v>
+        <v>0.1817723333333333</v>
       </c>
       <c r="N4">
-        <v>83.762266</v>
+        <v>0.5453170000000001</v>
       </c>
       <c r="O4">
-        <v>0.9742723681522142</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="P4">
-        <v>0.9742723681522143</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="Q4">
-        <v>55.97443207589021</v>
+        <v>1.710414945211667</v>
       </c>
       <c r="R4">
-        <v>503.769888683012</v>
+        <v>15.393734506905</v>
       </c>
       <c r="S4">
-        <v>0.1169807398913867</v>
+        <v>0.003653546540438518</v>
       </c>
       <c r="T4">
-        <v>0.1169807398913867</v>
+        <v>0.003653546540438519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>28.228965</v>
       </c>
       <c r="I5">
-        <v>0.5635664696121425</v>
+        <v>0.4074771110502447</v>
       </c>
       <c r="J5">
-        <v>0.5635664696121424</v>
+        <v>0.4074771110502448</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5555316666666666</v>
+        <v>20.09115</v>
       </c>
       <c r="N5">
-        <v>1.666595</v>
+        <v>60.27345</v>
       </c>
       <c r="O5">
-        <v>0.01938483203642842</v>
+        <v>0.9910337379907751</v>
       </c>
       <c r="P5">
-        <v>0.01938483203642843</v>
+        <v>0.9910337379907752</v>
       </c>
       <c r="Q5">
-        <v>5.227361324908332</v>
+        <v>189.05079005325</v>
       </c>
       <c r="R5">
-        <v>47.046251924175</v>
+        <v>1701.45711047925</v>
       </c>
       <c r="S5">
-        <v>0.01092464135479433</v>
+        <v>0.4038235645098062</v>
       </c>
       <c r="T5">
-        <v>0.01092464135479433</v>
+        <v>0.4038235645098063</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.409654999999999</v>
+        <v>12.95234266666667</v>
       </c>
       <c r="H6">
-        <v>28.228965</v>
+        <v>38.857028</v>
       </c>
       <c r="I6">
-        <v>0.5635664696121425</v>
+        <v>0.5608901889757016</v>
       </c>
       <c r="J6">
-        <v>0.5635664696121424</v>
+        <v>0.5608901889757018</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,27 +806,27 @@
         <v>0.5453170000000001</v>
       </c>
       <c r="O6">
-        <v>0.006342799811357313</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="P6">
-        <v>0.006342799811357313</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="Q6">
-        <v>1.710414945211667</v>
+        <v>2.354377548652889</v>
       </c>
       <c r="R6">
-        <v>15.393734506905</v>
+        <v>21.189397937876</v>
       </c>
       <c r="S6">
-        <v>0.003574589297143204</v>
+        <v>0.0050290883927598</v>
       </c>
       <c r="T6">
-        <v>0.003574589297143204</v>
+        <v>0.005029088392759801</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.409654999999999</v>
+        <v>12.95234266666667</v>
       </c>
       <c r="H7">
-        <v>28.228965</v>
+        <v>38.857028</v>
       </c>
       <c r="I7">
-        <v>0.5635664696121425</v>
+        <v>0.5608901889757016</v>
       </c>
       <c r="J7">
-        <v>0.5635664696121424</v>
+        <v>0.5608901889757018</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.92075533333333</v>
+        <v>20.09115</v>
       </c>
       <c r="N7">
-        <v>83.762266</v>
+        <v>60.27345</v>
       </c>
       <c r="O7">
-        <v>0.9742723681522142</v>
+        <v>0.9910337379907751</v>
       </c>
       <c r="P7">
-        <v>0.9742723681522143</v>
+        <v>0.9910337379907752</v>
       </c>
       <c r="Q7">
-        <v>262.7246750260766</v>
+        <v>260.2274593674</v>
       </c>
       <c r="R7">
-        <v>2364.52207523469</v>
+        <v>2342.0471343066</v>
       </c>
       <c r="S7">
-        <v>0.5490672389602049</v>
+        <v>0.5558611005829418</v>
       </c>
       <c r="T7">
-        <v>0.5490672389602049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>5.282204</v>
-      </c>
-      <c r="H8">
-        <v>15.846612</v>
-      </c>
-      <c r="I8">
-        <v>0.3163636775260238</v>
-      </c>
-      <c r="J8">
-        <v>0.3163636775260238</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.5555316666666666</v>
-      </c>
-      <c r="N8">
-        <v>1.666595</v>
-      </c>
-      <c r="O8">
-        <v>0.01938483203642842</v>
-      </c>
-      <c r="P8">
-        <v>0.01938483203642843</v>
-      </c>
-      <c r="Q8">
-        <v>2.934431591793333</v>
-      </c>
-      <c r="R8">
-        <v>26.40988432614</v>
-      </c>
-      <c r="S8">
-        <v>0.006132656751268778</v>
-      </c>
-      <c r="T8">
-        <v>0.006132656751268778</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5.282204</v>
-      </c>
-      <c r="H9">
-        <v>15.846612</v>
-      </c>
-      <c r="I9">
-        <v>0.3163636775260238</v>
-      </c>
-      <c r="J9">
-        <v>0.3163636775260238</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.1817723333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.5453170000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.006342799811357313</v>
-      </c>
-      <c r="P9">
-        <v>0.006342799811357313</v>
-      </c>
-      <c r="Q9">
-        <v>0.9601585462226667</v>
-      </c>
-      <c r="R9">
-        <v>8.641426916004001</v>
-      </c>
-      <c r="S9">
-        <v>0.00200663147413237</v>
-      </c>
-      <c r="T9">
-        <v>0.00200663147413237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>5.282204</v>
-      </c>
-      <c r="H10">
-        <v>15.846612</v>
-      </c>
-      <c r="I10">
-        <v>0.3163636775260238</v>
-      </c>
-      <c r="J10">
-        <v>0.3163636775260238</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>27.92075533333333</v>
-      </c>
-      <c r="N10">
-        <v>83.762266</v>
-      </c>
-      <c r="O10">
-        <v>0.9742723681522142</v>
-      </c>
-      <c r="P10">
-        <v>0.9742723681522143</v>
-      </c>
-      <c r="Q10">
-        <v>147.4831255047547</v>
-      </c>
-      <c r="R10">
-        <v>1327.348129542792</v>
-      </c>
-      <c r="S10">
-        <v>0.3082243893006227</v>
-      </c>
-      <c r="T10">
-        <v>0.3082243893006227</v>
+        <v>0.555861100582942</v>
       </c>
     </row>
   </sheetData>
